--- a/Data/aearep-796/candidatepackages.xlsx
+++ b/Data/aearep-796/candidatepackages.xlsx
@@ -14,50 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
     <t>cv</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -73,21 +52,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-796</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-796/118902</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-796/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>MainAnalysis.do</t>
   </si>
   <si>
@@ -95,12 +65,6 @@
   </si>
   <si>
     <t>StratAnalysis.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -144,7 +108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -152,13 +116,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -166,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -178,7 +142,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -190,10 +154,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D4"/>
     </row>
@@ -202,10 +166,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>563</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D5"/>
     </row>
@@ -214,10 +178,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>1125</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D6"/>
     </row>
@@ -226,10 +190,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>565</v>
+        <v>1503</v>
       </c>
       <c r="C7">
-        <v>0.18733422458171844</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D7"/>
     </row>
@@ -238,96 +202,12 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>2436</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1124</v>
-      </c>
-      <c r="C9">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1194</v>
-      </c>
-      <c r="C10">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1424</v>
-      </c>
-      <c r="C11">
-        <v>0.47214853763580322</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1798</v>
-      </c>
-      <c r="C12">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1817</v>
-      </c>
-      <c r="C13">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1859</v>
-      </c>
-      <c r="C14">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2424</v>
-      </c>
-      <c r="C15">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D15"/>
     </row>
   </sheetData>
 </worksheet>
@@ -335,63 +215,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
